--- a/data/s_vals/2024/marsh_alec.xlsx
+++ b/data/s_vals/2024/marsh_alec.xlsx
@@ -472,22 +472,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.52218429426656</v>
+        <v>0.6753301551942219</v>
       </c>
       <c r="C2" t="n">
-        <v>1.30730885917215</v>
+        <v>1.667794583268128</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4920287655081723</v>
+        <v>0.8054896365839992</v>
       </c>
       <c r="E2" t="n">
-        <v>0.345811306910992</v>
+        <v>0.496779210170732</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>3.667333225857874</v>
+        <v>3.645393585217082</v>
       </c>
     </row>
   </sheetData>

--- a/data/s_vals/2024/marsh_alec.xlsx
+++ b/data/s_vals/2024/marsh_alec.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,11 @@
           <t>sum</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Save</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -488,6 +493,9 @@
       </c>
       <c r="G2" t="n">
         <v>3.645393585217082</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/s_vals/2024/marsh_alec.xlsx
+++ b/data/s_vals/2024/marsh_alec.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,11 +464,6 @@
           <t>sum</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Save</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -493,9 +488,6 @@
       </c>
       <c r="G2" t="n">
         <v>3.645393585217082</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/s_vals/2024/marsh_alec.xlsx
+++ b/data/s_vals/2024/marsh_alec.xlsx
@@ -477,22 +477,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6753301551942219</v>
+        <v>0.7287194209349384</v>
       </c>
       <c r="C2" t="n">
-        <v>1.667794583268128</v>
+        <v>1.65323645889881</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8054896365839992</v>
+        <v>0.7127328510149897</v>
       </c>
       <c r="E2" t="n">
-        <v>0.496779210170732</v>
+        <v>0.4998867070740569</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>3.645393585217082</v>
+        <v>3.594575437922795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
